--- a/SchedulingData/static2/pso/scheduling1_13.xlsx
+++ b/SchedulingData/static2/pso/scheduling1_13.xlsx
@@ -462,75 +462,75 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>51.12</v>
+        <v>84.45999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>26.568</v>
+        <v>25.744</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.68</v>
+        <v>49.96</v>
       </c>
       <c r="E3" t="n">
-        <v>25.912</v>
+        <v>26.204</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>57.68</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>99.18000000000001</v>
+        <v>60.1</v>
       </c>
       <c r="E4" t="n">
-        <v>23.392</v>
+        <v>27.64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>49.96</v>
+        <v>64.56</v>
       </c>
       <c r="E5" t="n">
         <v>26.204</v>
@@ -538,230 +538,230 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>64.56</v>
+        <v>57.68</v>
       </c>
       <c r="E6" t="n">
-        <v>26.204</v>
+        <v>25.912</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>49.96</v>
+        <v>60.1</v>
       </c>
       <c r="D7" t="n">
-        <v>116.32</v>
+        <v>116.3</v>
       </c>
       <c r="E7" t="n">
-        <v>23.168</v>
+        <v>25.12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>64.56</v>
       </c>
       <c r="D8" t="n">
-        <v>49.42</v>
+        <v>111.12</v>
       </c>
       <c r="E8" t="n">
-        <v>26.248</v>
+        <v>23.168</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>116.32</v>
+        <v>116.3</v>
       </c>
       <c r="D9" t="n">
-        <v>173.22</v>
+        <v>173.66</v>
       </c>
       <c r="E9" t="n">
-        <v>21.088</v>
+        <v>21.984</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>49.42</v>
+        <v>111.12</v>
       </c>
       <c r="D10" t="n">
-        <v>117.22</v>
+        <v>168.02</v>
       </c>
       <c r="E10" t="n">
-        <v>22.588</v>
+        <v>18.608</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>64.56</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>112.48</v>
+        <v>49.42</v>
       </c>
       <c r="E11" t="n">
-        <v>23.032</v>
+        <v>26.248</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>51.12</v>
+        <v>49.96</v>
       </c>
       <c r="D12" t="n">
-        <v>119.98</v>
+        <v>112.66</v>
       </c>
       <c r="E12" t="n">
-        <v>22.312</v>
+        <v>22.544</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>112.48</v>
+        <v>49.42</v>
       </c>
       <c r="D13" t="n">
-        <v>147.38</v>
+        <v>100.04</v>
       </c>
       <c r="E13" t="n">
-        <v>20.672</v>
+        <v>22.816</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>117.22</v>
+        <v>57.68</v>
       </c>
       <c r="D14" t="n">
-        <v>159.32</v>
+        <v>104.24</v>
       </c>
       <c r="E14" t="n">
-        <v>19.508</v>
+        <v>22.876</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>99.18000000000001</v>
+        <v>100.04</v>
       </c>
       <c r="D15" t="n">
-        <v>156.54</v>
+        <v>162.76</v>
       </c>
       <c r="E15" t="n">
-        <v>20.256</v>
+        <v>19.644</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>112.66</v>
       </c>
       <c r="D16" t="n">
-        <v>66.76000000000001</v>
+        <v>149.66</v>
       </c>
       <c r="E16" t="n">
-        <v>26.964</v>
+        <v>20.464</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>66.76000000000001</v>
+        <v>84.45999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>123.66</v>
+        <v>126.56</v>
       </c>
       <c r="E17" t="n">
-        <v>22.404</v>
+        <v>22.664</v>
       </c>
     </row>
   </sheetData>
